--- a/Data/Input/ScheduleDetails_Bot1.xlsx
+++ b/Data/Input/ScheduleDetails_Bot1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_Bot 1\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09311532-FBC1-48F8-885A-66B3B69CB2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F308938-5494-43A5-88E1-61478C900459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
